--- a/raw.xlsx
+++ b/raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2_cvd_tyg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C78015-FCA3-4E71-B71B-A883164DC547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE1BE9B-FD87-4E14-BA30-74B87A0B2DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{548E1A33-AFB5-4127-B3C8-59D1810DFD65}"/>
   </bookViews>
@@ -841,8 +841,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
